--- a/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
+++ b/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
@@ -968,12 +968,6 @@
     <t>0x20007FCC (All)</t>
   </si>
   <si>
-    <t>0x20007FD0 (All)</t>
-  </si>
-  <si>
-    <t>0x20007FD4 (All)</t>
-  </si>
-  <si>
     <t>0x20007F88 (All)</t>
   </si>
   <si>
@@ -1068,6 +1062,12 @@
   </si>
   <si>
     <t>0x20007F84 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F30 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F34 (All)</t>
   </si>
 </sst>
 </file>
@@ -5252,61 +5252,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2626.0</c:v>
+                  <c:v>3452.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0</c:v>
+                  <c:v>3579.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1774.0</c:v>
+                  <c:v>3599.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1800.0</c:v>
+                  <c:v>3509.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1895.0</c:v>
+                  <c:v>3319.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2055.0</c:v>
+                  <c:v>3048.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2263.0</c:v>
+                  <c:v>2726.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2499.0</c:v>
+                  <c:v>2386.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2740.0</c:v>
+                  <c:v>2063.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2963.0</c:v>
+                  <c:v>1792.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3145.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3268.0</c:v>
+                  <c:v>1510.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3321.0</c:v>
+                  <c:v>1528.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3298.0</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3202.0</c:v>
+                  <c:v>1875.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3042.0</c:v>
+                  <c:v>2168.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2833.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2597.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2356.0</c:v>
+                  <c:v>3147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,61 +5424,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2462.0</c:v>
+                  <c:v>3462.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2007.0</c:v>
+                  <c:v>3581.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1835.0</c:v>
+                  <c:v>3598.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1814.0</c:v>
+                  <c:v>3505.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1865.0</c:v>
+                  <c:v>3313.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1983.0</c:v>
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2157.0</c:v>
+                  <c:v>2717.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2369.0</c:v>
+                  <c:v>2376.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2600.0</c:v>
+                  <c:v>2055.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2825.0</c:v>
+                  <c:v>1786.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3024.0</c:v>
+                  <c:v>1597.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3175.0</c:v>
+                  <c:v>1509.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3266.0</c:v>
+                  <c:v>1530.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3287.0</c:v>
+                  <c:v>1660.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3235.0</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3116.0</c:v>
+                  <c:v>2177.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2941.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2729.0</c:v>
+                  <c:v>2848.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2498.0</c:v>
+                  <c:v>3155.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,64 +5797,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2626.0</c:v>
+                  <c:v>3452.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2293.0</c:v>
+                  <c:v>3579.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1774.0</c:v>
+                  <c:v>3599.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1800.0</c:v>
+                  <c:v>3509.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1895.0</c:v>
+                  <c:v>3319.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2055.0</c:v>
+                  <c:v>3048.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2263.0</c:v>
+                  <c:v>2726.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2499.0</c:v>
+                  <c:v>2386.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2740.0</c:v>
+                  <c:v>2063.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2963.0</c:v>
+                  <c:v>1792.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3145.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3268.0</c:v>
+                  <c:v>1510.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3321.0</c:v>
+                  <c:v>1528.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3298.0</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3202.0</c:v>
+                  <c:v>1875.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3042.0</c:v>
+                  <c:v>2168.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2833.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2597.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2356.0</c:v>
+                  <c:v>3147.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2134.0</c:v>
+                  <c:v>3393.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,64 +5975,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2462.0</c:v>
+                  <c:v>3462.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2007.0</c:v>
+                  <c:v>3581.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1835.0</c:v>
+                  <c:v>3598.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1814.0</c:v>
+                  <c:v>3505.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1865.0</c:v>
+                  <c:v>3313.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1983.0</c:v>
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2157.0</c:v>
+                  <c:v>2717.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2369.0</c:v>
+                  <c:v>2376.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2600.0</c:v>
+                  <c:v>2055.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2825.0</c:v>
+                  <c:v>1786.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3024.0</c:v>
+                  <c:v>1597.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3175.0</c:v>
+                  <c:v>1509.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3266.0</c:v>
+                  <c:v>1530.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3287.0</c:v>
+                  <c:v>1660.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3235.0</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3116.0</c:v>
+                  <c:v>2177.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2941.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2729.0</c:v>
+                  <c:v>2848.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2498.0</c:v>
+                  <c:v>3155.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2273.0</c:v>
+                  <c:v>3399.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17674,7 +17674,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17687,13 +17687,13 @@
         <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -17701,10 +17701,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2626</v>
+        <v>3452</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -17714,14 +17714,14 @@
       </c>
       <c r="F2">
         <f>B2</f>
-        <v>2626</v>
+        <v>3452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>B23</f>
-        <v>2462</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -17729,10 +17729,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2293</v>
+        <v>3579</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -17742,14 +17742,14 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">B3</f>
-        <v>2293</v>
+        <v>3579</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H20" si="1">B24</f>
-        <v>2007</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17757,10 +17757,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1774</v>
+        <v>3599</v>
       </c>
       <c r="C4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -17770,14 +17770,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1774</v>
+        <v>3599</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>1835</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -17785,10 +17785,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1800</v>
+        <v>3509</v>
       </c>
       <c r="C5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -17798,14 +17798,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>3509</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>1814</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -17813,10 +17813,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1895</v>
+        <v>3319</v>
       </c>
       <c r="C6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -17826,14 +17826,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1895</v>
+        <v>3319</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1865</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -17841,10 +17841,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2055</v>
+        <v>3048</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -17854,14 +17854,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>2055</v>
+        <v>3048</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1983</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -17869,10 +17869,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2263</v>
+        <v>2726</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -17882,14 +17882,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2263</v>
+        <v>2726</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>2157</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -17897,10 +17897,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2499</v>
+        <v>2386</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -17910,14 +17910,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2499</v>
+        <v>2386</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2369</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -17925,10 +17925,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2740</v>
+        <v>2063</v>
       </c>
       <c r="C10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -17938,14 +17938,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2740</v>
+        <v>2063</v>
       </c>
       <c r="G10">
         <v>17</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>2600</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -17953,10 +17953,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2963</v>
+        <v>1792</v>
       </c>
       <c r="C11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -17966,14 +17966,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>2963</v>
+        <v>1792</v>
       </c>
       <c r="G11">
         <v>19</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>2825</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -17981,10 +17981,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3145</v>
+        <v>1600</v>
       </c>
       <c r="C12" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -17994,14 +17994,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>3145</v>
+        <v>1600</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>3024</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -18009,10 +18009,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3268</v>
+        <v>1510</v>
       </c>
       <c r="C13" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -18022,14 +18022,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>3268</v>
+        <v>1510</v>
       </c>
       <c r="G13">
         <v>23</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>3175</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -18037,10 +18037,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3321</v>
+        <v>1528</v>
       </c>
       <c r="C14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -18050,14 +18050,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>3321</v>
+        <v>1528</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>3266</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -18065,10 +18065,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3298</v>
+        <v>1654</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -18078,14 +18078,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>3298</v>
+        <v>1654</v>
       </c>
       <c r="G15">
         <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>3287</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -18093,10 +18093,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3202</v>
+        <v>1875</v>
       </c>
       <c r="C16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -18106,14 +18106,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>3202</v>
+        <v>1875</v>
       </c>
       <c r="G16">
         <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>3235</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -18121,10 +18121,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3042</v>
+        <v>2168</v>
       </c>
       <c r="C17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -18134,14 +18134,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>3042</v>
+        <v>2168</v>
       </c>
       <c r="G17">
         <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>3116</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -18149,10 +18149,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2833</v>
+        <v>2500</v>
       </c>
       <c r="C18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -18162,14 +18162,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>2833</v>
+        <v>2500</v>
       </c>
       <c r="G18">
         <v>33</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>2941</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -18177,10 +18177,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2597</v>
+        <v>2838</v>
       </c>
       <c r="C19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -18190,14 +18190,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>2597</v>
+        <v>2838</v>
       </c>
       <c r="G19">
         <v>35</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2729</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -18205,10 +18205,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2356</v>
+        <v>3147</v>
       </c>
       <c r="C20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -18218,14 +18218,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>2356</v>
+        <v>3147</v>
       </c>
       <c r="G20">
         <v>37</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>2498</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -18233,10 +18233,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2134</v>
+        <v>3393</v>
       </c>
       <c r="C21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -18247,13 +18247,13 @@
         <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C22" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -18261,10 +18261,10 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>2462</v>
+        <v>3462</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -18275,10 +18275,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>2007</v>
+        <v>3581</v>
       </c>
       <c r="C24" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -18289,10 +18289,10 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>1835</v>
+        <v>3598</v>
       </c>
       <c r="C25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -18303,10 +18303,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>1814</v>
+        <v>3505</v>
       </c>
       <c r="C26" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -18317,10 +18317,10 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>1865</v>
+        <v>3313</v>
       </c>
       <c r="C27" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -18331,10 +18331,10 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>1983</v>
+        <v>3040</v>
       </c>
       <c r="C28" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -18345,10 +18345,10 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>2157</v>
+        <v>2717</v>
       </c>
       <c r="C29" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -18359,10 +18359,10 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>2369</v>
+        <v>2376</v>
       </c>
       <c r="C30" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -18373,10 +18373,10 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>2600</v>
+        <v>2055</v>
       </c>
       <c r="C31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -18387,10 +18387,10 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>2825</v>
+        <v>1786</v>
       </c>
       <c r="C32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -18401,10 +18401,10 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>3024</v>
+        <v>1597</v>
       </c>
       <c r="C33" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -18415,10 +18415,10 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>3175</v>
+        <v>1509</v>
       </c>
       <c r="C34" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -18429,10 +18429,10 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>3266</v>
+        <v>1530</v>
       </c>
       <c r="C35" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -18443,10 +18443,10 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>3287</v>
+        <v>1660</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -18457,10 +18457,10 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>3235</v>
+        <v>1883</v>
       </c>
       <c r="C37" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -18471,10 +18471,10 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>3116</v>
+        <v>2177</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -18485,10 +18485,10 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>2941</v>
+        <v>2510</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -18499,10 +18499,10 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>2729</v>
+        <v>2848</v>
       </c>
       <c r="C40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -18513,10 +18513,10 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>2498</v>
+        <v>3155</v>
       </c>
       <c r="C41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -18527,10 +18527,10 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>2273</v>
+        <v>3399</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -18563,7 +18563,7 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>2134</v>
+        <v>3393</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>

--- a/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
+++ b/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
@@ -5252,61 +5252,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3452.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3579.0</c:v>
+                  <c:v>876.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3599.0</c:v>
+                  <c:v>1369.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3509.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3319.0</c:v>
+                  <c:v>2661.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3048.0</c:v>
+                  <c:v>3327.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2726.0</c:v>
+                  <c:v>3910.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2386.0</c:v>
+                  <c:v>4352.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2063.0</c:v>
+                  <c:v>4605.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1792.0</c:v>
+                  <c:v>4642.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1600.0</c:v>
+                  <c:v>4460.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1510.0</c:v>
+                  <c:v>4077.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1528.0</c:v>
+                  <c:v>3534.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1654.0</c:v>
+                  <c:v>2889.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1875.0</c:v>
+                  <c:v>2209.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2168.0</c:v>
+                  <c:v>1564.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500.0</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2838.0</c:v>
+                  <c:v>644.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3147.0</c:v>
+                  <c:v>465.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,61 +5424,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3462.0</c:v>
+                  <c:v>623.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3581.0</c:v>
+                  <c:v>902.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3598.0</c:v>
+                  <c:v>1395.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3505.0</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3313.0</c:v>
+                  <c:v>2678.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3040.0</c:v>
+                  <c:v>3335.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2717.0</c:v>
+                  <c:v>3912.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2376.0</c:v>
+                  <c:v>4346.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2055.0</c:v>
+                  <c:v>4587.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1786.0</c:v>
+                  <c:v>4624.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1597.0</c:v>
+                  <c:v>4434.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1509.0</c:v>
+                  <c:v>4051.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1530.0</c:v>
+                  <c:v>3510.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1660.0</c:v>
+                  <c:v>2869.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1883.0</c:v>
+                  <c:v>2195.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2177.0</c:v>
+                  <c:v>1558.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2510.0</c:v>
+                  <c:v>1029.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2848.0</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3155.0</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,64 +5797,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3452.0</c:v>
+                  <c:v>560.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3579.0</c:v>
+                  <c:v>876.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3599.0</c:v>
+                  <c:v>1369.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3509.0</c:v>
+                  <c:v>1985.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3319.0</c:v>
+                  <c:v>2661.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3048.0</c:v>
+                  <c:v>3327.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2726.0</c:v>
+                  <c:v>3910.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2386.0</c:v>
+                  <c:v>4352.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2063.0</c:v>
+                  <c:v>4605.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1792.0</c:v>
+                  <c:v>4642.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1600.0</c:v>
+                  <c:v>4460.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1510.0</c:v>
+                  <c:v>4077.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1528.0</c:v>
+                  <c:v>3534.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1654.0</c:v>
+                  <c:v>2889.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1875.0</c:v>
+                  <c:v>2209.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2168.0</c:v>
+                  <c:v>1564.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500.0</c:v>
+                  <c:v>1024.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2838.0</c:v>
+                  <c:v>644.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3147.0</c:v>
+                  <c:v>465.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3393.0</c:v>
+                  <c:v>505.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,64 +5975,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3462.0</c:v>
+                  <c:v>623.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3581.0</c:v>
+                  <c:v>902.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3598.0</c:v>
+                  <c:v>1395.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3505.0</c:v>
+                  <c:v>2008.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3313.0</c:v>
+                  <c:v>2678.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3040.0</c:v>
+                  <c:v>3335.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2717.0</c:v>
+                  <c:v>3912.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2376.0</c:v>
+                  <c:v>4346.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2055.0</c:v>
+                  <c:v>4587.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1786.0</c:v>
+                  <c:v>4624.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1597.0</c:v>
+                  <c:v>4434.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1509.0</c:v>
+                  <c:v>4051.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1530.0</c:v>
+                  <c:v>3510.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1660.0</c:v>
+                  <c:v>2869.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1883.0</c:v>
+                  <c:v>2195.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2177.0</c:v>
+                  <c:v>1558.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2510.0</c:v>
+                  <c:v>1029.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2848.0</c:v>
+                  <c:v>652.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3155.0</c:v>
+                  <c:v>485.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3399.0</c:v>
+                  <c:v>529.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17674,7 +17674,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection sqref="A1:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3452</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s">
         <v>342</v>
@@ -17714,14 +17714,14 @@
       </c>
       <c r="F2">
         <f>B2</f>
-        <v>3452</v>
+        <v>560</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>B23</f>
-        <v>3462</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3579</v>
+        <v>876</v>
       </c>
       <c r="C3" t="s">
         <v>343</v>
@@ -17742,14 +17742,14 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">B3</f>
-        <v>3579</v>
+        <v>876</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H20" si="1">B24</f>
-        <v>3581</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17757,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3599</v>
+        <v>1369</v>
       </c>
       <c r="C4" t="s">
         <v>312</v>
@@ -17770,14 +17770,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>3599</v>
+        <v>1369</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3598</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -17785,7 +17785,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3509</v>
+        <v>1985</v>
       </c>
       <c r="C5" t="s">
         <v>313</v>
@@ -17798,14 +17798,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3509</v>
+        <v>1985</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3505</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -17813,7 +17813,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3319</v>
+        <v>2661</v>
       </c>
       <c r="C6" t="s">
         <v>314</v>
@@ -17826,14 +17826,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>3319</v>
+        <v>2661</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>3313</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -17841,7 +17841,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3048</v>
+        <v>3327</v>
       </c>
       <c r="C7" t="s">
         <v>315</v>
@@ -17854,14 +17854,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3048</v>
+        <v>3327</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>3040</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -17869,7 +17869,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2726</v>
+        <v>3910</v>
       </c>
       <c r="C8" t="s">
         <v>316</v>
@@ -17882,14 +17882,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2726</v>
+        <v>3910</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>2717</v>
+        <v>3912</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2386</v>
+        <v>4352</v>
       </c>
       <c r="C9" t="s">
         <v>317</v>
@@ -17910,14 +17910,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2386</v>
+        <v>4352</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2376</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -17925,7 +17925,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2063</v>
+        <v>4605</v>
       </c>
       <c r="C10" t="s">
         <v>318</v>
@@ -17938,14 +17938,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2063</v>
+        <v>4605</v>
       </c>
       <c r="G10">
         <v>17</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>2055</v>
+        <v>4587</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -17953,7 +17953,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1792</v>
+        <v>4642</v>
       </c>
       <c r="C11" t="s">
         <v>319</v>
@@ -17966,14 +17966,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1792</v>
+        <v>4642</v>
       </c>
       <c r="G11">
         <v>19</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1786</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -17981,7 +17981,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1600</v>
+        <v>4460</v>
       </c>
       <c r="C12" t="s">
         <v>320</v>
@@ -17994,14 +17994,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>4460</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1597</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -18009,7 +18009,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1510</v>
+        <v>4077</v>
       </c>
       <c r="C13" t="s">
         <v>321</v>
@@ -18022,14 +18022,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1510</v>
+        <v>4077</v>
       </c>
       <c r="G13">
         <v>23</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -18037,7 +18037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1528</v>
+        <v>3534</v>
       </c>
       <c r="C14" t="s">
         <v>304</v>
@@ -18050,14 +18050,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1528</v>
+        <v>3534</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>1530</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -18065,7 +18065,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1654</v>
+        <v>2889</v>
       </c>
       <c r="C15" t="s">
         <v>305</v>
@@ -18078,14 +18078,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1654</v>
+        <v>2889</v>
       </c>
       <c r="G15">
         <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -18093,7 +18093,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1875</v>
+        <v>2209</v>
       </c>
       <c r="C16" t="s">
         <v>306</v>
@@ -18106,14 +18106,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>2209</v>
       </c>
       <c r="G16">
         <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1883</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -18121,7 +18121,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2168</v>
+        <v>1564</v>
       </c>
       <c r="C17" t="s">
         <v>307</v>
@@ -18134,14 +18134,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>2168</v>
+        <v>1564</v>
       </c>
       <c r="G17">
         <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>2177</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -18149,7 +18149,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2500</v>
+        <v>1024</v>
       </c>
       <c r="C18" t="s">
         <v>308</v>
@@ -18162,14 +18162,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>1024</v>
       </c>
       <c r="G18">
         <v>33</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>2510</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -18177,7 +18177,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2838</v>
+        <v>644</v>
       </c>
       <c r="C19" t="s">
         <v>309</v>
@@ -18190,14 +18190,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>2838</v>
+        <v>644</v>
       </c>
       <c r="G19">
         <v>35</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2848</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -18205,7 +18205,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3147</v>
+        <v>465</v>
       </c>
       <c r="C20" t="s">
         <v>310</v>
@@ -18218,14 +18218,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>3147</v>
+        <v>465</v>
       </c>
       <c r="G20">
         <v>37</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>3155</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -18233,7 +18233,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3393</v>
+        <v>505</v>
       </c>
       <c r="C21" t="s">
         <v>311</v>
@@ -18261,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>3462</v>
+        <v>623</v>
       </c>
       <c r="C23" t="s">
         <v>344</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>3581</v>
+        <v>902</v>
       </c>
       <c r="C24" t="s">
         <v>345</v>
@@ -18289,7 +18289,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>3598</v>
+        <v>1395</v>
       </c>
       <c r="C25" t="s">
         <v>324</v>
@@ -18303,7 +18303,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3505</v>
+        <v>2008</v>
       </c>
       <c r="C26" t="s">
         <v>325</v>
@@ -18317,7 +18317,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>3313</v>
+        <v>2678</v>
       </c>
       <c r="C27" t="s">
         <v>326</v>
@@ -18331,7 +18331,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>3040</v>
+        <v>3335</v>
       </c>
       <c r="C28" t="s">
         <v>327</v>
@@ -18345,7 +18345,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>2717</v>
+        <v>3912</v>
       </c>
       <c r="C29" t="s">
         <v>328</v>
@@ -18359,7 +18359,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>2376</v>
+        <v>4346</v>
       </c>
       <c r="C30" t="s">
         <v>329</v>
@@ -18373,7 +18373,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>2055</v>
+        <v>4587</v>
       </c>
       <c r="C31" t="s">
         <v>330</v>
@@ -18387,7 +18387,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>1786</v>
+        <v>4624</v>
       </c>
       <c r="C32" t="s">
         <v>331</v>
@@ -18401,7 +18401,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>1597</v>
+        <v>4434</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -18415,7 +18415,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>1509</v>
+        <v>4051</v>
       </c>
       <c r="C34" t="s">
         <v>333</v>
@@ -18429,7 +18429,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>1530</v>
+        <v>3510</v>
       </c>
       <c r="C35" t="s">
         <v>334</v>
@@ -18443,7 +18443,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>1660</v>
+        <v>2869</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -18457,7 +18457,7 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>1883</v>
+        <v>2195</v>
       </c>
       <c r="C37" t="s">
         <v>336</v>
@@ -18471,7 +18471,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>2177</v>
+        <v>1558</v>
       </c>
       <c r="C38" t="s">
         <v>337</v>
@@ -18485,7 +18485,7 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>2510</v>
+        <v>1029</v>
       </c>
       <c r="C39" t="s">
         <v>338</v>
@@ -18499,7 +18499,7 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>2848</v>
+        <v>652</v>
       </c>
       <c r="C40" t="s">
         <v>339</v>
@@ -18513,7 +18513,7 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>3155</v>
+        <v>485</v>
       </c>
       <c r="C41" t="s">
         <v>340</v>
@@ -18527,7 +18527,7 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>3399</v>
+        <v>529</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -18563,7 +18563,7 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>3393</v>
+        <v>505</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>

--- a/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
+++ b/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
@@ -5252,61 +5252,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>560.0</c:v>
+                  <c:v>3452.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>876.0</c:v>
+                  <c:v>3579.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1369.0</c:v>
+                  <c:v>3599.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1985.0</c:v>
+                  <c:v>3509.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2661.0</c:v>
+                  <c:v>3319.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3327.0</c:v>
+                  <c:v>3048.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3910.0</c:v>
+                  <c:v>2726.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4352.0</c:v>
+                  <c:v>2386.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4605.0</c:v>
+                  <c:v>2063.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4642.0</c:v>
+                  <c:v>1792.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4460.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4077.0</c:v>
+                  <c:v>1510.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3534.0</c:v>
+                  <c:v>1528.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2889.0</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2209.0</c:v>
+                  <c:v>1875.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1564.0</c:v>
+                  <c:v>2168.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1024.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>644.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465.0</c:v>
+                  <c:v>3147.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,61 +5424,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>623.0</c:v>
+                  <c:v>3462.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>902.0</c:v>
+                  <c:v>3581.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1395.0</c:v>
+                  <c:v>3598.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008.0</c:v>
+                  <c:v>3505.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2678.0</c:v>
+                  <c:v>3313.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3335.0</c:v>
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3912.0</c:v>
+                  <c:v>2717.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4346.0</c:v>
+                  <c:v>2376.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4587.0</c:v>
+                  <c:v>2055.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4624.0</c:v>
+                  <c:v>1786.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4434.0</c:v>
+                  <c:v>1597.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4051.0</c:v>
+                  <c:v>1509.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3510.0</c:v>
+                  <c:v>1530.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2869.0</c:v>
+                  <c:v>1660.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2195.0</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1558.0</c:v>
+                  <c:v>2177.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1029.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>652.0</c:v>
+                  <c:v>2848.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>485.0</c:v>
+                  <c:v>3155.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5797,64 +5797,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>560.0</c:v>
+                  <c:v>3452.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>876.0</c:v>
+                  <c:v>3579.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1369.0</c:v>
+                  <c:v>3599.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1985.0</c:v>
+                  <c:v>3509.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2661.0</c:v>
+                  <c:v>3319.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3327.0</c:v>
+                  <c:v>3048.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3910.0</c:v>
+                  <c:v>2726.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4352.0</c:v>
+                  <c:v>2386.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4605.0</c:v>
+                  <c:v>2063.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4642.0</c:v>
+                  <c:v>1792.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4460.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4077.0</c:v>
+                  <c:v>1510.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3534.0</c:v>
+                  <c:v>1528.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2889.0</c:v>
+                  <c:v>1654.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2209.0</c:v>
+                  <c:v>1875.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1564.0</c:v>
+                  <c:v>2168.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1024.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>644.0</c:v>
+                  <c:v>2838.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>465.0</c:v>
+                  <c:v>3147.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>505.0</c:v>
+                  <c:v>3393.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,64 +5975,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>623.0</c:v>
+                  <c:v>3462.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>902.0</c:v>
+                  <c:v>3581.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1395.0</c:v>
+                  <c:v>3598.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2008.0</c:v>
+                  <c:v>3505.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2678.0</c:v>
+                  <c:v>3313.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3335.0</c:v>
+                  <c:v>3040.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3912.0</c:v>
+                  <c:v>2717.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4346.0</c:v>
+                  <c:v>2376.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4587.0</c:v>
+                  <c:v>2055.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4624.0</c:v>
+                  <c:v>1786.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4434.0</c:v>
+                  <c:v>1597.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4051.0</c:v>
+                  <c:v>1509.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3510.0</c:v>
+                  <c:v>1530.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2869.0</c:v>
+                  <c:v>1660.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2195.0</c:v>
+                  <c:v>1883.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1558.0</c:v>
+                  <c:v>2177.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1029.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>652.0</c:v>
+                  <c:v>2848.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>485.0</c:v>
+                  <c:v>3155.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>529.0</c:v>
+                  <c:v>3399.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17674,7 +17674,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D45"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>560</v>
+        <v>3452</v>
       </c>
       <c r="C2" t="s">
         <v>342</v>
@@ -17714,14 +17714,14 @@
       </c>
       <c r="F2">
         <f>B2</f>
-        <v>560</v>
+        <v>3452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>B23</f>
-        <v>623</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -17729,7 +17729,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>876</v>
+        <v>3579</v>
       </c>
       <c r="C3" t="s">
         <v>343</v>
@@ -17742,14 +17742,14 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">B3</f>
-        <v>876</v>
+        <v>3579</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H20" si="1">B24</f>
-        <v>902</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17757,7 +17757,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1369</v>
+        <v>3599</v>
       </c>
       <c r="C4" t="s">
         <v>312</v>
@@ -17770,14 +17770,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>1369</v>
+        <v>3599</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>1395</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -17785,7 +17785,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1985</v>
+        <v>3509</v>
       </c>
       <c r="C5" t="s">
         <v>313</v>
@@ -17798,14 +17798,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1985</v>
+        <v>3509</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>2008</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -17813,7 +17813,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2661</v>
+        <v>3319</v>
       </c>
       <c r="C6" t="s">
         <v>314</v>
@@ -17826,14 +17826,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>2661</v>
+        <v>3319</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>2678</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -17841,7 +17841,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3327</v>
+        <v>3048</v>
       </c>
       <c r="C7" t="s">
         <v>315</v>
@@ -17854,14 +17854,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3327</v>
+        <v>3048</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>3335</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -17869,7 +17869,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3910</v>
+        <v>2726</v>
       </c>
       <c r="C8" t="s">
         <v>316</v>
@@ -17882,14 +17882,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>3910</v>
+        <v>2726</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>3912</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -17897,7 +17897,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4352</v>
+        <v>2386</v>
       </c>
       <c r="C9" t="s">
         <v>317</v>
@@ -17910,14 +17910,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>4352</v>
+        <v>2386</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>4346</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -17925,7 +17925,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4605</v>
+        <v>2063</v>
       </c>
       <c r="C10" t="s">
         <v>318</v>
@@ -17938,14 +17938,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>4605</v>
+        <v>2063</v>
       </c>
       <c r="G10">
         <v>17</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>4587</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -17953,7 +17953,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4642</v>
+        <v>1792</v>
       </c>
       <c r="C11" t="s">
         <v>319</v>
@@ -17966,14 +17966,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>4642</v>
+        <v>1792</v>
       </c>
       <c r="G11">
         <v>19</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>4624</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -17981,7 +17981,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4460</v>
+        <v>1600</v>
       </c>
       <c r="C12" t="s">
         <v>320</v>
@@ -17994,14 +17994,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>4460</v>
+        <v>1600</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>4434</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -18009,7 +18009,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4077</v>
+        <v>1510</v>
       </c>
       <c r="C13" t="s">
         <v>321</v>
@@ -18022,14 +18022,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>4077</v>
+        <v>1510</v>
       </c>
       <c r="G13">
         <v>23</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>4051</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -18037,7 +18037,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3534</v>
+        <v>1528</v>
       </c>
       <c r="C14" t="s">
         <v>304</v>
@@ -18050,14 +18050,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>3534</v>
+        <v>1528</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>3510</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -18065,7 +18065,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2889</v>
+        <v>1654</v>
       </c>
       <c r="C15" t="s">
         <v>305</v>
@@ -18078,14 +18078,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>2889</v>
+        <v>1654</v>
       </c>
       <c r="G15">
         <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>2869</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -18093,7 +18093,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2209</v>
+        <v>1875</v>
       </c>
       <c r="C16" t="s">
         <v>306</v>
@@ -18106,14 +18106,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>2209</v>
+        <v>1875</v>
       </c>
       <c r="G16">
         <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>2195</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -18121,7 +18121,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1564</v>
+        <v>2168</v>
       </c>
       <c r="C17" t="s">
         <v>307</v>
@@ -18134,14 +18134,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>1564</v>
+        <v>2168</v>
       </c>
       <c r="G17">
         <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1558</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -18149,7 +18149,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1024</v>
+        <v>2500</v>
       </c>
       <c r="C18" t="s">
         <v>308</v>
@@ -18162,14 +18162,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>2500</v>
       </c>
       <c r="G18">
         <v>33</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>1029</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -18177,7 +18177,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>644</v>
+        <v>2838</v>
       </c>
       <c r="C19" t="s">
         <v>309</v>
@@ -18190,14 +18190,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>644</v>
+        <v>2838</v>
       </c>
       <c r="G19">
         <v>35</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>652</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -18205,7 +18205,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>465</v>
+        <v>3147</v>
       </c>
       <c r="C20" t="s">
         <v>310</v>
@@ -18218,14 +18218,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>465</v>
+        <v>3147</v>
       </c>
       <c r="G20">
         <v>37</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>485</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -18233,7 +18233,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>505</v>
+        <v>3393</v>
       </c>
       <c r="C21" t="s">
         <v>311</v>
@@ -18261,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>623</v>
+        <v>3462</v>
       </c>
       <c r="C23" t="s">
         <v>344</v>
@@ -18275,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>902</v>
+        <v>3581</v>
       </c>
       <c r="C24" t="s">
         <v>345</v>
@@ -18289,7 +18289,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>1395</v>
+        <v>3598</v>
       </c>
       <c r="C25" t="s">
         <v>324</v>
@@ -18303,7 +18303,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>2008</v>
+        <v>3505</v>
       </c>
       <c r="C26" t="s">
         <v>325</v>
@@ -18317,7 +18317,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>2678</v>
+        <v>3313</v>
       </c>
       <c r="C27" t="s">
         <v>326</v>
@@ -18331,7 +18331,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>3335</v>
+        <v>3040</v>
       </c>
       <c r="C28" t="s">
         <v>327</v>
@@ -18345,7 +18345,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>3912</v>
+        <v>2717</v>
       </c>
       <c r="C29" t="s">
         <v>328</v>
@@ -18359,7 +18359,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>4346</v>
+        <v>2376</v>
       </c>
       <c r="C30" t="s">
         <v>329</v>
@@ -18373,7 +18373,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>4587</v>
+        <v>2055</v>
       </c>
       <c r="C31" t="s">
         <v>330</v>
@@ -18387,7 +18387,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>4624</v>
+        <v>1786</v>
       </c>
       <c r="C32" t="s">
         <v>331</v>
@@ -18401,7 +18401,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>4434</v>
+        <v>1597</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -18415,7 +18415,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>4051</v>
+        <v>1509</v>
       </c>
       <c r="C34" t="s">
         <v>333</v>
@@ -18429,7 +18429,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>3510</v>
+        <v>1530</v>
       </c>
       <c r="C35" t="s">
         <v>334</v>
@@ -18443,7 +18443,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>2869</v>
+        <v>1660</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -18457,7 +18457,7 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>2195</v>
+        <v>1883</v>
       </c>
       <c r="C37" t="s">
         <v>336</v>
@@ -18471,7 +18471,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>1558</v>
+        <v>2177</v>
       </c>
       <c r="C38" t="s">
         <v>337</v>
@@ -18485,7 +18485,7 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>1029</v>
+        <v>2510</v>
       </c>
       <c r="C39" t="s">
         <v>338</v>
@@ -18499,7 +18499,7 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>652</v>
+        <v>2848</v>
       </c>
       <c r="C40" t="s">
         <v>339</v>
@@ -18513,7 +18513,7 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>485</v>
+        <v>3155</v>
       </c>
       <c r="C41" t="s">
         <v>340</v>
@@ -18527,7 +18527,7 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>529</v>
+        <v>3399</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -18563,7 +18563,7 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>505</v>
+        <v>3393</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>

--- a/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
+++ b/Maaleenhed/Spaendingsmaaler/Arrayudskrift.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="840" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Test 2 array." sheetId="3" r:id="rId3"/>
     <sheet name="Ark4" sheetId="4" r:id="rId4"/>
+    <sheet name="Ark4 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Test godkendt." sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="388">
   <si>
     <t>SampleArray</t>
   </si>
@@ -1068,6 +1070,132 @@
   </si>
   <si>
     <t>0x20007F34 (All)</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>int [40]</t>
+  </si>
+  <si>
+    <t>0x20007E90 (All)</t>
+  </si>
+  <si>
+    <t>0x20007E94 (All)</t>
+  </si>
+  <si>
+    <t>0x20007E98 (All)</t>
+  </si>
+  <si>
+    <t>0x20007E9C (All)</t>
+  </si>
+  <si>
+    <t>0x20007EA0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EA4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EA8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EAC (All)</t>
+  </si>
+  <si>
+    <t>0x20007EB0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EB4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EB8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EBC (All)</t>
+  </si>
+  <si>
+    <t>0x20007EC0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EC4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EC8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007ECC (All)</t>
+  </si>
+  <si>
+    <t>0x20007ED0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007ED4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007ED8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EDC (All)</t>
+  </si>
+  <si>
+    <t>0x20007EE0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EE4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EE8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EEC (All)</t>
+  </si>
+  <si>
+    <t>0x20007EF0 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EF4 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EF8 (All)</t>
+  </si>
+  <si>
+    <t>0x20007EFC (All)</t>
+  </si>
+  <si>
+    <t>0x20007F00 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F04 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F08 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F0C (All)</t>
+  </si>
+  <si>
+    <t>0x20007F10 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F14 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F18 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F1C (All)</t>
+  </si>
+  <si>
+    <t>0x20007F20 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F24 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F28 (All)</t>
+  </si>
+  <si>
+    <t>0x20007F2C (All)</t>
   </si>
 </sst>
 </file>
@@ -1809,11 +1937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-482696784"/>
-        <c:axId val="-482694736"/>
+        <c:axId val="784393664"/>
+        <c:axId val="784395296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-482696784"/>
+        <c:axId val="784393664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,12 +1997,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-482694736"/>
+        <c:crossAx val="784395296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-482694736"/>
+        <c:axId val="784395296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +2058,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-482696784"/>
+        <c:crossAx val="784393664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +2122,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2900,11 +3027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-456947136"/>
-        <c:axId val="-456358352"/>
+        <c:axId val="679390848"/>
+        <c:axId val="679393328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-456947136"/>
+        <c:axId val="679390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,12 +3087,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-456358352"/>
+        <c:crossAx val="679393328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-456358352"/>
+        <c:axId val="679393328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3148,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-456947136"/>
+        <c:crossAx val="679390848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3085,7 +3212,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4951,11 +5077,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-457555936"/>
-        <c:axId val="-457361440"/>
+        <c:axId val="679425904"/>
+        <c:axId val="679428384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-457555936"/>
+        <c:axId val="679425904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,12 +5137,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-457361440"/>
+        <c:crossAx val="679428384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-457361440"/>
+        <c:axId val="679428384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5072,7 +5198,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-457555936"/>
+        <c:crossAx val="679425904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5252,61 +5378,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3452.0</c:v>
+                  <c:v>2845.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3579.0</c:v>
+                  <c:v>2437.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3599.0</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3509.0</c:v>
+                  <c:v>1736.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3319.0</c:v>
+                  <c:v>1547.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1510.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1630.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1890.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2251.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2657.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3048.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2726.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2386.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2063.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1792.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1600.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1510.0</c:v>
+                  <c:v>3365.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1528.0</c:v>
+                  <c:v>3560.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1654.0</c:v>
+                  <c:v>3603.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1875.0</c:v>
+                  <c:v>3487.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2168.0</c:v>
+                  <c:v>3232.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500.0</c:v>
+                  <c:v>2874.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2838.0</c:v>
+                  <c:v>2468.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3147.0</c:v>
+                  <c:v>2076.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5424,61 +5550,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>3462.0</c:v>
+                  <c:v>464.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3581.0</c:v>
+                  <c:v>524.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3598.0</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3505.0</c:v>
+                  <c:v>1506.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3313.0</c:v>
+                  <c:v>2279.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3040.0</c:v>
+                  <c:v>3093.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2717.0</c:v>
+                  <c:v>3828.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2376.0</c:v>
+                  <c:v>4369.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2055.0</c:v>
+                  <c:v>4637.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1786.0</c:v>
+                  <c:v>4588.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1597.0</c:v>
+                  <c:v>4230.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1509.0</c:v>
+                  <c:v>3619.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1530.0</c:v>
+                  <c:v>2847.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1660.0</c:v>
+                  <c:v>2032.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1883.0</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2177.0</c:v>
+                  <c:v>749.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2510.0</c:v>
+                  <c:v>472.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2848.0</c:v>
+                  <c:v>508.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3155.0</c:v>
+                  <c:v>852.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5493,11 +5619,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-455144512"/>
-        <c:axId val="-455146832"/>
+        <c:axId val="783337408"/>
+        <c:axId val="783339888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-455144512"/>
+        <c:axId val="783337408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5553,12 +5679,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-455146832"/>
+        <c:crossAx val="783339888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-455146832"/>
+        <c:axId val="783339888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5614,7 +5740,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-455144512"/>
+        <c:crossAx val="783337408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5797,64 +5923,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3452.0</c:v>
+                  <c:v>2845.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3579.0</c:v>
+                  <c:v>2437.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3599.0</c:v>
+                  <c:v>2048.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3509.0</c:v>
+                  <c:v>1736.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3319.0</c:v>
+                  <c:v>1547.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1510.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1630.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1890.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2251.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2657.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>3048.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>2726.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2386.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2063.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1792.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1600.0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1510.0</c:v>
+                  <c:v>3365.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1528.0</c:v>
+                  <c:v>3560.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1654.0</c:v>
+                  <c:v>3603.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1875.0</c:v>
+                  <c:v>3487.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2168.0</c:v>
+                  <c:v>3232.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2500.0</c:v>
+                  <c:v>2874.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2838.0</c:v>
+                  <c:v>2468.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3147.0</c:v>
+                  <c:v>2076.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3393.0</c:v>
+                  <c:v>1755.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,64 +6101,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3462.0</c:v>
+                  <c:v>464.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3581.0</c:v>
+                  <c:v>524.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3598.0</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3505.0</c:v>
+                  <c:v>1506.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3313.0</c:v>
+                  <c:v>2279.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3040.0</c:v>
+                  <c:v>3093.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2717.0</c:v>
+                  <c:v>3828.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2376.0</c:v>
+                  <c:v>4369.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2055.0</c:v>
+                  <c:v>4637.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1786.0</c:v>
+                  <c:v>4588.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1597.0</c:v>
+                  <c:v>4230.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1509.0</c:v>
+                  <c:v>3619.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1530.0</c:v>
+                  <c:v>2847.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1660.0</c:v>
+                  <c:v>2032.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1883.0</c:v>
+                  <c:v>1296.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2177.0</c:v>
+                  <c:v>749.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2510.0</c:v>
+                  <c:v>472.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2848.0</c:v>
+                  <c:v>508.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3155.0</c:v>
+                  <c:v>852.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3399.0</c:v>
+                  <c:v>1451.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6047,11 +6173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-383966032"/>
-        <c:axId val="-383968080"/>
+        <c:axId val="783363904"/>
+        <c:axId val="783366384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-383966032"/>
+        <c:axId val="783363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6107,12 +6233,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383968080"/>
+        <c:crossAx val="783366384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-383968080"/>
+        <c:axId val="783366384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6168,7 +6294,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-383966032"/>
+        <c:crossAx val="783363904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6180,6 +6306,1626 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark4 (2)'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark4 (2)'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark4 (2)'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3089.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2702.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2294.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1926.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1652.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1515.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1534.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1709.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2394.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2802.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3173.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3450.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3591.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3576.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3406.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3108.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2725.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2317.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1945.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1665.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1519.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1530.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1695.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1991.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2372.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2779.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3153.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3436.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3587.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3581.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3420.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3128.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2750.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2341.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1678.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1523.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1524.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1681.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark4 (2)'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ark4 (2)'!$A$43:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ark4 (2)'!$B$43:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>3589.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4206.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4572.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4631.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4375.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3843.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3114.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2300.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1524.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>902.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>530.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>708.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1232.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1957.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2770.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3549.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4177.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4559.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4635.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4397.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3879.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3157.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2346.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1565.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>931.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1196.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1911.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2721.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3505.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4145.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4544.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4640.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4421.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3918.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3208.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2399.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="783403936"/>
+        <c:axId val="783406416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="783403936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783406416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="783406416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="783403936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test godkendt.'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test godkendt.'!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test godkendt.'!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1981.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2364.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2775.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3152.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3438.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3590.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3583.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3420.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3124.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2742.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2332.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1954.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1668.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1516.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1520.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1681.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1974.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2355.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2765.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3144.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3433.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3588.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3585.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3425.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3132.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2751.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2341.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1962.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1673.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1517.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1518.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1676.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1966.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2345.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2756.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3137.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3428.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3586.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3587.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3430.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test godkendt.'!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SampleArrayI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Test godkendt.'!$A$43:$A$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Test godkendt.'!$B$43:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>1708.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2506.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3315.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4010.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4484.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4665.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4525.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4087.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3415.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2615.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1807.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1115.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>641.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>593.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1026.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1691.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2487.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3297.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3996.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4476.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4663.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4532.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4100.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3433.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2633.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1825.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1129.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>649.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>587.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1013.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1674.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2468.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3280.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3983.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4468.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4663.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4538.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4112.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="802743920"/>
+        <c:axId val="802746400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="802743920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802746400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="802746400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="802743920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6378,6 +8124,86 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8997,6 +10823,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9159,6 +12017,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17673,8 +20605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17701,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3452</v>
+        <v>2845</v>
       </c>
       <c r="C2" t="s">
         <v>342</v>
@@ -17714,14 +20646,14 @@
       </c>
       <c r="F2">
         <f>B2</f>
-        <v>3452</v>
+        <v>2845</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <f>B23</f>
-        <v>3462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -17729,7 +20661,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3579</v>
+        <v>2437</v>
       </c>
       <c r="C3" t="s">
         <v>343</v>
@@ -17742,14 +20674,14 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">B3</f>
-        <v>3579</v>
+        <v>2437</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H20" si="1">B24</f>
-        <v>3581</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -17757,7 +20689,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3599</v>
+        <v>2048</v>
       </c>
       <c r="C4" t="s">
         <v>312</v>
@@ -17770,14 +20702,14 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>3599</v>
+        <v>2048</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>3598</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -17785,7 +20717,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3509</v>
+        <v>1736</v>
       </c>
       <c r="C5" t="s">
         <v>313</v>
@@ -17798,14 +20730,14 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>3509</v>
+        <v>1736</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>3505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -17813,7 +20745,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3319</v>
+        <v>1547</v>
       </c>
       <c r="C6" t="s">
         <v>314</v>
@@ -17826,14 +20758,14 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>3319</v>
+        <v>1547</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>3313</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -17841,7 +20773,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3048</v>
+        <v>1510</v>
       </c>
       <c r="C7" t="s">
         <v>315</v>
@@ -17854,14 +20786,14 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>3048</v>
+        <v>1510</v>
       </c>
       <c r="G7">
         <v>11</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>3040</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -17869,7 +20801,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2726</v>
+        <v>1630</v>
       </c>
       <c r="C8" t="s">
         <v>316</v>
@@ -17882,14 +20814,14 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>2726</v>
+        <v>1630</v>
       </c>
       <c r="G8">
         <v>13</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>2717</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -17897,7 +20829,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2386</v>
+        <v>1890</v>
       </c>
       <c r="C9" t="s">
         <v>317</v>
@@ -17910,14 +20842,14 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>2386</v>
+        <v>1890</v>
       </c>
       <c r="G9">
         <v>15</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>2376</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -17925,7 +20857,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2063</v>
+        <v>2251</v>
       </c>
       <c r="C10" t="s">
         <v>318</v>
@@ -17938,14 +20870,14 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>2063</v>
+        <v>2251</v>
       </c>
       <c r="G10">
         <v>17</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>2055</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -17953,7 +20885,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1792</v>
+        <v>2657</v>
       </c>
       <c r="C11" t="s">
         <v>319</v>
@@ -17966,14 +20898,14 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1792</v>
+        <v>2657</v>
       </c>
       <c r="G11">
         <v>19</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1786</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -17981,7 +20913,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1600</v>
+        <v>3048</v>
       </c>
       <c r="C12" t="s">
         <v>320</v>
@@ -17994,14 +20926,14 @@
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>3048</v>
       </c>
       <c r="G12">
         <v>21</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1597</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -18009,7 +20941,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1510</v>
+        <v>3365</v>
       </c>
       <c r="C13" t="s">
         <v>321</v>
@@ -18022,14 +20954,14 @@
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1510</v>
+        <v>3365</v>
       </c>
       <c r="G13">
         <v>23</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1509</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -18037,7 +20969,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1528</v>
+        <v>3560</v>
       </c>
       <c r="C14" t="s">
         <v>304</v>
@@ -18050,14 +20982,14 @@
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1528</v>
+        <v>3560</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>1530</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -18065,7 +20997,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1654</v>
+        <v>3603</v>
       </c>
       <c r="C15" t="s">
         <v>305</v>
@@ -18078,14 +21010,14 @@
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1654</v>
+        <v>3603</v>
       </c>
       <c r="G15">
         <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>1660</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -18093,7 +21025,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1875</v>
+        <v>3487</v>
       </c>
       <c r="C16" t="s">
         <v>306</v>
@@ -18106,14 +21038,14 @@
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>3487</v>
       </c>
       <c r="G16">
         <v>29</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>1883</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -18121,7 +21053,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2168</v>
+        <v>3232</v>
       </c>
       <c r="C17" t="s">
         <v>307</v>
@@ -18134,14 +21066,14 @@
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>2168</v>
+        <v>3232</v>
       </c>
       <c r="G17">
         <v>31</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>2177</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -18149,7 +21081,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2500</v>
+        <v>2874</v>
       </c>
       <c r="C18" t="s">
         <v>308</v>
@@ -18162,14 +21094,14 @@
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>2500</v>
+        <v>2874</v>
       </c>
       <c r="G18">
         <v>33</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>2510</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -18177,7 +21109,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2838</v>
+        <v>2468</v>
       </c>
       <c r="C19" t="s">
         <v>309</v>
@@ -18190,14 +21122,14 @@
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>2838</v>
+        <v>2468</v>
       </c>
       <c r="G19">
         <v>35</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>2848</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -18205,7 +21137,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3147</v>
+        <v>2076</v>
       </c>
       <c r="C20" t="s">
         <v>310</v>
@@ -18218,14 +21150,14 @@
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>3147</v>
+        <v>2076</v>
       </c>
       <c r="G20">
         <v>37</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>3155</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -18233,7 +21165,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3393</v>
+        <v>1755</v>
       </c>
       <c r="C21" t="s">
         <v>311</v>
@@ -18261,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>3462</v>
+        <v>464</v>
       </c>
       <c r="C23" t="s">
         <v>344</v>
@@ -18275,7 +21207,7 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>3581</v>
+        <v>524</v>
       </c>
       <c r="C24" t="s">
         <v>345</v>
@@ -18289,7 +21221,7 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>3598</v>
+        <v>890</v>
       </c>
       <c r="C25" t="s">
         <v>324</v>
@@ -18303,7 +21235,7 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>3505</v>
+        <v>1506</v>
       </c>
       <c r="C26" t="s">
         <v>325</v>
@@ -18317,7 +21249,7 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <v>3313</v>
+        <v>2279</v>
       </c>
       <c r="C27" t="s">
         <v>326</v>
@@ -18331,7 +21263,7 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>3040</v>
+        <v>3093</v>
       </c>
       <c r="C28" t="s">
         <v>327</v>
@@ -18345,7 +21277,7 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <v>2717</v>
+        <v>3828</v>
       </c>
       <c r="C29" t="s">
         <v>328</v>
@@ -18359,7 +21291,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>2376</v>
+        <v>4369</v>
       </c>
       <c r="C30" t="s">
         <v>329</v>
@@ -18373,7 +21305,7 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>2055</v>
+        <v>4637</v>
       </c>
       <c r="C31" t="s">
         <v>330</v>
@@ -18387,7 +21319,7 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <v>1786</v>
+        <v>4588</v>
       </c>
       <c r="C32" t="s">
         <v>331</v>
@@ -18401,7 +21333,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>1597</v>
+        <v>4230</v>
       </c>
       <c r="C33" t="s">
         <v>332</v>
@@ -18415,7 +21347,7 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <v>1509</v>
+        <v>3619</v>
       </c>
       <c r="C34" t="s">
         <v>333</v>
@@ -18429,7 +21361,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>1530</v>
+        <v>2847</v>
       </c>
       <c r="C35" t="s">
         <v>334</v>
@@ -18443,7 +21375,7 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <v>1660</v>
+        <v>2032</v>
       </c>
       <c r="C36" t="s">
         <v>335</v>
@@ -18457,7 +21389,7 @@
         <v>14</v>
       </c>
       <c r="B37">
-        <v>1883</v>
+        <v>1296</v>
       </c>
       <c r="C37" t="s">
         <v>336</v>
@@ -18471,7 +21403,7 @@
         <v>15</v>
       </c>
       <c r="B38">
-        <v>2177</v>
+        <v>749</v>
       </c>
       <c r="C38" t="s">
         <v>337</v>
@@ -18485,7 +21417,7 @@
         <v>16</v>
       </c>
       <c r="B39">
-        <v>2510</v>
+        <v>472</v>
       </c>
       <c r="C39" t="s">
         <v>338</v>
@@ -18499,7 +21431,7 @@
         <v>17</v>
       </c>
       <c r="B40">
-        <v>2848</v>
+        <v>508</v>
       </c>
       <c r="C40" t="s">
         <v>339</v>
@@ -18513,7 +21445,7 @@
         <v>18</v>
       </c>
       <c r="B41">
-        <v>3155</v>
+        <v>852</v>
       </c>
       <c r="C41" t="s">
         <v>340</v>
@@ -18527,7 +21459,7 @@
         <v>19</v>
       </c>
       <c r="B42">
-        <v>3399</v>
+        <v>1451</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -18538,13 +21470,16 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43">
-        <v>40</v>
+        <v>106</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -18563,10 +21498,2372 @@
         <v>6</v>
       </c>
       <c r="B45">
-        <v>3393</v>
+        <v>3554</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3089</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2702</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2294</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1926</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1652</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1515</v>
+      </c>
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1534</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1709</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2802</v>
+      </c>
+      <c r="C12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3173</v>
+      </c>
+      <c r="C13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3450</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3591</v>
+      </c>
+      <c r="C15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3576</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>3108</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2725</v>
+      </c>
+      <c r="C19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2317</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1945</v>
+      </c>
+      <c r="C21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1665</v>
+      </c>
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1519</v>
+      </c>
+      <c r="C23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1530</v>
+      </c>
+      <c r="C24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1695</v>
+      </c>
+      <c r="C25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1991</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2372</v>
+      </c>
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2779</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>3436</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3587</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>3581</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3420</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2750</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1966</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1678</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1523</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1524</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1681</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>3589</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>4206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>4572</v>
+      </c>
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>4631</v>
+      </c>
+      <c r="C46" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>4375</v>
+      </c>
+      <c r="C47" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>3843</v>
+      </c>
+      <c r="C48" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>3114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>2300</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>1524</v>
+      </c>
+      <c r="C51" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>902</v>
+      </c>
+      <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>530</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>461</v>
+      </c>
+      <c r="C54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>708</v>
+      </c>
+      <c r="C55" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>1232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>1957</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>2770</v>
+      </c>
+      <c r="C58" t="s">
+        <v>363</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>3549</v>
+      </c>
+      <c r="C59" t="s">
+        <v>364</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>4177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>4559</v>
+      </c>
+      <c r="C61" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>4635</v>
+      </c>
+      <c r="C62" t="s">
+        <v>367</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>4397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>3879</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>3157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>2346</v>
+      </c>
+      <c r="C66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>1565</v>
+      </c>
+      <c r="C67" t="s">
+        <v>372</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>931</v>
+      </c>
+      <c r="C68" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>26</v>
+      </c>
+      <c r="B69">
+        <v>543</v>
+      </c>
+      <c r="C69" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>456</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>687</v>
+      </c>
+      <c r="C71" t="s">
+        <v>376</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>1196</v>
+      </c>
+      <c r="C72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>1911</v>
+      </c>
+      <c r="C73" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>31</v>
+      </c>
+      <c r="B74">
+        <v>2721</v>
+      </c>
+      <c r="C74" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>3505</v>
+      </c>
+      <c r="C75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>4145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>4544</v>
+      </c>
+      <c r="C77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>4640</v>
+      </c>
+      <c r="C78" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>4421</v>
+      </c>
+      <c r="C79" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>3918</v>
+      </c>
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>3208</v>
+      </c>
+      <c r="C81" t="s">
+        <v>386</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>2399</v>
+      </c>
+      <c r="C82" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1981</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2775</v>
+      </c>
+      <c r="C4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3590</v>
+      </c>
+      <c r="C7" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3583</v>
+      </c>
+      <c r="C8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3420</v>
+      </c>
+      <c r="C9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3124</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2742</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2332</v>
+      </c>
+      <c r="C12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1668</v>
+      </c>
+      <c r="C14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1516</v>
+      </c>
+      <c r="C15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1520</v>
+      </c>
+      <c r="C16" t="s">
+        <v>336</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>337</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1974</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2355</v>
+      </c>
+      <c r="C19" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2765</v>
+      </c>
+      <c r="C20" t="s">
+        <v>340</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>3433</v>
+      </c>
+      <c r="C22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3588</v>
+      </c>
+      <c r="C23" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>3585</v>
+      </c>
+      <c r="C24" t="s">
+        <v>312</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3425</v>
+      </c>
+      <c r="C25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>3132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2751</v>
+      </c>
+      <c r="C27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1962</v>
+      </c>
+      <c r="C29" t="s">
+        <v>317</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1673</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1517</v>
+      </c>
+      <c r="C31" t="s">
+        <v>319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1518</v>
+      </c>
+      <c r="C32" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1676</v>
+      </c>
+      <c r="C33" t="s">
+        <v>321</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1966</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>2345</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2756</v>
+      </c>
+      <c r="C36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3428</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3586</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3587</v>
+      </c>
+      <c r="C40" t="s">
+        <v>310</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3430</v>
+      </c>
+      <c r="C41" t="s">
+        <v>311</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" t="s">
+        <v>348</v>
+      </c>
+      <c r="D42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1708</v>
+      </c>
+      <c r="C43" t="s">
+        <v>348</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2506</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>3315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>4010</v>
+      </c>
+      <c r="C46" t="s">
+        <v>351</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>4484</v>
+      </c>
+      <c r="C47" t="s">
+        <v>352</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>4665</v>
+      </c>
+      <c r="C48" t="s">
+        <v>353</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>4525</v>
+      </c>
+      <c r="C49" t="s">
+        <v>354</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>4087</v>
+      </c>
+      <c r="C50" t="s">
+        <v>355</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>3415</v>
+      </c>
+      <c r="C51" t="s">
+        <v>356</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>2615</v>
+      </c>
+      <c r="C52" t="s">
+        <v>357</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53">
+        <v>1807</v>
+      </c>
+      <c r="C53" t="s">
+        <v>358</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54">
+        <v>1115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>359</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>641</v>
+      </c>
+      <c r="C55" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>459</v>
+      </c>
+      <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>593</v>
+      </c>
+      <c r="C57" t="s">
+        <v>362</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>15</v>
+      </c>
+      <c r="B58">
+        <v>1026</v>
+      </c>
+      <c r="C58" t="s">
+        <v>363</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>16</v>
+      </c>
+      <c r="B59">
+        <v>1691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>364</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>2487</v>
+      </c>
+      <c r="C60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>18</v>
+      </c>
+      <c r="B61">
+        <v>3297</v>
+      </c>
+      <c r="C61" t="s">
+        <v>366</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>3996</v>
+      </c>
+      <c r="C62" t="s">
+        <v>367</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>20</v>
+      </c>
+      <c r="B63">
+        <v>4476</v>
+      </c>
+      <c r="C63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>21</v>
+      </c>
+      <c r="B64">
+        <v>4663</v>
+      </c>
+      <c r="C64" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>4532</v>
+      </c>
+      <c r="C65" t="s">
+        <v>370</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>23</v>
+      </c>
+      <c r="B66">
+        <v>4100</v>
+      </c>
+      <c r="C66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>24</v>
+      </c>
+      <c r="B67">
+        <v>3433</v>
+      </c>
+      <c r="C67" t="s">
+        <v>372</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>2633</v>
+      </c>
+      <c r="C68" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>26</v>
+      </c>
+      <c r="B69">
+        <v>1825</v>
+      </c>
+      <c r="C69" t="s">
+        <v>374</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>27</v>
+      </c>
+      <c r="B70">
+        <v>1129</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>649</v>
+      </c>
+      <c r="C71" t="s">
+        <v>376</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>459</v>
+      </c>
+      <c r="C72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>30</v>
+      </c>
+      <c r="B73">
+        <v>587</v>
+      </c>
+      <c r="C73" t="s">
+        <v>378</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>31</v>
+      </c>
+      <c r="B74">
+        <v>1013</v>
+      </c>
+      <c r="C74" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <v>1674</v>
+      </c>
+      <c r="C75" t="s">
+        <v>380</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>33</v>
+      </c>
+      <c r="B76">
+        <v>2468</v>
+      </c>
+      <c r="C76" t="s">
+        <v>381</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>34</v>
+      </c>
+      <c r="B77">
+        <v>3280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>35</v>
+      </c>
+      <c r="B78">
+        <v>3983</v>
+      </c>
+      <c r="C78" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>36</v>
+      </c>
+      <c r="B79">
+        <v>4468</v>
+      </c>
+      <c r="C79" t="s">
+        <v>384</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>37</v>
+      </c>
+      <c r="B80">
+        <v>4663</v>
+      </c>
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>38</v>
+      </c>
+      <c r="B81">
+        <v>4538</v>
+      </c>
+      <c r="C81" t="s">
+        <v>386</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>39</v>
+      </c>
+      <c r="B82">
+        <v>4112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" t="s">
+        <v>106</v>
+      </c>
+      <c r="D83" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
